--- a/data/trans_orig/P22_R3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22_R3-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9364</v>
+        <v>9392</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25003</v>
+        <v>25362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01544753378757927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00910076751764833</v>
+        <v>0.009128090306905316</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02430085431201376</v>
+        <v>0.02464997833550767</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -765,19 +765,19 @@
         <v>38133</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26475</v>
+        <v>27236</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50969</v>
+        <v>52941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02901463998320618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0201443561837125</v>
+        <v>0.02072317958722585</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03878126409909165</v>
+        <v>0.04028181274581993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -786,19 +786,19 @@
         <v>54027</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40014</v>
+        <v>41739</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67954</v>
+        <v>69644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02305729570285684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01707706346503787</v>
+        <v>0.01781320282115468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02900107500995534</v>
+        <v>0.02972233993892842</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1012986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1003877</v>
+        <v>1003518</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1019516</v>
+        <v>1019488</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9845524662124208</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9756991456879862</v>
+        <v>0.9753500216644919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9908992324823517</v>
+        <v>0.9908719096930946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1253</v>
@@ -836,19 +836,19 @@
         <v>1276132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1263296</v>
+        <v>1261324</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1287790</v>
+        <v>1287029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9709853600167938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9612187359009084</v>
+        <v>0.9597181872541803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9798556438162876</v>
+        <v>0.9792768204127742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2271</v>
@@ -857,19 +857,19 @@
         <v>2289118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2275191</v>
+        <v>2273501</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2303131</v>
+        <v>2301406</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9769427042971431</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709989249900441</v>
+        <v>0.970277660061071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9829229365349621</v>
+        <v>0.9821867971788452</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>48143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35175</v>
+        <v>37031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63370</v>
+        <v>65979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02848964294115428</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02081562197548885</v>
+        <v>0.02191358216707277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03750014411650991</v>
+        <v>0.03904449523833152</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -982,19 +982,19 @@
         <v>60710</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46703</v>
+        <v>45805</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77655</v>
+        <v>77015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03826688163665616</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02943795689516347</v>
+        <v>0.02887209058428392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04894779534757059</v>
+        <v>0.04854442002541095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -1003,19 +1003,19 @@
         <v>108853</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90144</v>
+        <v>88564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131004</v>
+        <v>129704</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03322404746174526</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02751357808562513</v>
+        <v>0.02703149126181146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03998490192747477</v>
+        <v>0.03958820758588738</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1641704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1626477</v>
+        <v>1623868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1654672</v>
+        <v>1652816</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9715103570588457</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9624998558834895</v>
+        <v>0.9609555047616689</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.979184378024511</v>
+        <v>0.9780864178329274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1496</v>
@@ -1053,19 +1053,19 @@
         <v>1525783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1508838</v>
+        <v>1509478</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1539790</v>
+        <v>1540688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9617331183633439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9510522046524293</v>
+        <v>0.9514555799745891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9705620431048365</v>
+        <v>0.971127909415716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3095</v>
@@ -1074,19 +1074,19 @@
         <v>3167487</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3145336</v>
+        <v>3146636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3186196</v>
+        <v>3187776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9667759525382548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9600150980725252</v>
+        <v>0.960411792414113</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9724864219143748</v>
+        <v>0.9729685087381886</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>66731</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52447</v>
+        <v>52844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>83968</v>
+        <v>84275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1210189961527581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09511516528213267</v>
+        <v>0.09583491846501331</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1522795371995095</v>
+        <v>0.1528357517292669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1199,19 +1199,19 @@
         <v>47267</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36148</v>
+        <v>35085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61260</v>
+        <v>61952</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09921471985039862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07587472245251782</v>
+        <v>0.07364413914062333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1285858511117245</v>
+        <v>0.1300386980182342</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1220,19 +1220,19 @@
         <v>113998</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93590</v>
+        <v>96014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134598</v>
+        <v>135629</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1109123478273938</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09105685017513061</v>
+        <v>0.09341473558852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1309547532040093</v>
+        <v>0.1319581361691302</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>484677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>467440</v>
+        <v>467133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>498961</v>
+        <v>498564</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8789810038472419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8477204628004908</v>
+        <v>0.8471642482707332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9048848347178674</v>
+        <v>0.9041650815349868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>407</v>
@@ -1270,19 +1270,19 @@
         <v>429145</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>415152</v>
+        <v>414460</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>440264</v>
+        <v>441327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9007852801496014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8714141488882755</v>
+        <v>0.8699613019817658</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9241252775474822</v>
+        <v>0.9263558608593766</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>869</v>
@@ -1291,19 +1291,19 @@
         <v>913822</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>893222</v>
+        <v>892191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>934230</v>
+        <v>931806</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8890876521726062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8690452467959907</v>
+        <v>0.8680418638308693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9089431498248693</v>
+        <v>0.9065852644114799</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>130768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1416,19 +1416,19 @@
         <v>146110</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>268</v>
@@ -1437,19 +1437,19 @@
         <v>276878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3139367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3115071</v>
+        <v>3115832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3160289</v>
+        <v>3160239</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9600115479054573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9525818136342807</v>
+        <v>0.9528143425352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9664094300175423</v>
+        <v>0.9663941183498533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3156</v>
@@ -1487,19 +1487,19 @@
         <v>3231060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3206744</v>
+        <v>3206683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3252409</v>
+        <v>3253542</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9567359279740694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.949535997383829</v>
+        <v>0.9495176519314039</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9630576732530999</v>
+        <v>0.9633931459512605</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6235</v>
@@ -1508,19 +1508,19 @@
         <v>6370426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6336335</v>
+        <v>6336717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6403063</v>
+        <v>6404154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9583473659576425</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.953218780850039</v>
+        <v>0.9532762206738664</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9632571541635275</v>
+        <v>0.9634213292528727</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>13816</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7235</v>
+        <v>6969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23607</v>
+        <v>22739</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01417577716136021</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007423567865377416</v>
+        <v>0.007150063383316865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02422109455440038</v>
+        <v>0.02333034123491774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -1872,19 +1872,19 @@
         <v>20020</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12089</v>
+        <v>11921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31952</v>
+        <v>31510</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01496512283066578</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00903651912912019</v>
+        <v>0.00891109596590919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02388427380403327</v>
+        <v>0.02355362435776525</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -1893,19 +1893,19 @@
         <v>33837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23052</v>
+        <v>23603</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48356</v>
+        <v>48939</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01463243078811255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009968790617507313</v>
+        <v>0.01020698402523708</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02091122211654203</v>
+        <v>0.02116352841101935</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>960827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>951036</v>
+        <v>951904</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>967408</v>
+        <v>967674</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9858242228386398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9757789054455996</v>
+        <v>0.976669658765083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925764321346225</v>
+        <v>0.9928499366166831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1229</v>
@@ -1943,19 +1943,19 @@
         <v>1317777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1305845</v>
+        <v>1306287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1325708</v>
+        <v>1325876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9850348771693342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9761157261959668</v>
+        <v>0.9764463756422349</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9909634808708798</v>
+        <v>0.991088904034091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2124</v>
@@ -1964,19 +1964,19 @@
         <v>2278603</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2264084</v>
+        <v>2263501</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2289388</v>
+        <v>2288837</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9853675692118874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9790887778834581</v>
+        <v>0.9788364715889808</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900312093824928</v>
+        <v>0.989793015974763</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>79597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62849</v>
+        <v>62311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102282</v>
+        <v>101324</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04054902279496663</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03201733268959009</v>
+        <v>0.0317433805663631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05210568528705886</v>
+        <v>0.05161755537077271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -2089,19 +2089,19 @@
         <v>59435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44249</v>
+        <v>44216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77104</v>
+        <v>76597</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03381185925559225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02517264669993459</v>
+        <v>0.02515400617568602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04386374961033038</v>
+        <v>0.04357565289526107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -2110,19 +2110,19 @@
         <v>139031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114213</v>
+        <v>116973</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166538</v>
+        <v>167521</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03736619340197275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03069604641524691</v>
+        <v>0.03143767904754288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04475877309873543</v>
+        <v>0.04502314138756389</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1883379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1860694</v>
+        <v>1861652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1900127</v>
+        <v>1900665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9594509772050334</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9478943147129411</v>
+        <v>0.9483824446292273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9679826673104098</v>
+        <v>0.9682566194336368</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1585</v>
@@ -2160,19 +2160,19 @@
         <v>1698368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1680699</v>
+        <v>1681206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1713554</v>
+        <v>1713587</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9661881407444077</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9561362503896703</v>
+        <v>0.956424347104739</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9748273533000654</v>
+        <v>0.9748459938243141</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3372</v>
@@ -2181,19 +2181,19 @@
         <v>3581748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3554241</v>
+        <v>3553258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3606566</v>
+        <v>3603806</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9626338065980272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9552412269012646</v>
+        <v>0.9549768586124362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9693039535847531</v>
+        <v>0.9685623209524572</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>65577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50054</v>
+        <v>49981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84266</v>
+        <v>85301</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1362826812409985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1040234485348193</v>
+        <v>0.1038711367179489</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1751238666455147</v>
+        <v>0.1772747919569032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2306,19 +2306,19 @@
         <v>43044</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30350</v>
+        <v>30571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57327</v>
+        <v>58901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09385251450567415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06617435805770053</v>
+        <v>0.06665808965824772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1249955319683394</v>
+        <v>0.1284284037514237</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>90</v>
@@ -2327,19 +2327,19 @@
         <v>108620</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87459</v>
+        <v>87709</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132935</v>
+        <v>130949</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1155766436064801</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09305965842639387</v>
+        <v>0.09332623030619566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1414479482681816</v>
+        <v>0.1393347310741434</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>415604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>396915</v>
+        <v>395880</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>431127</v>
+        <v>431200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8637173187590016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8248761333544851</v>
+        <v>0.8227252080430968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8959765514651806</v>
+        <v>0.8961288632820511</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>376</v>
@@ -2377,19 +2377,19 @@
         <v>415587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>401304</v>
+        <v>399730</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428281</v>
+        <v>428060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9061474854943259</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8750044680316607</v>
+        <v>0.8715715962485763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9338256419422994</v>
+        <v>0.9333419103417523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>760</v>
@@ -2398,19 +2398,19 @@
         <v>831193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>806878</v>
+        <v>808864</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>852354</v>
+        <v>852104</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8844233563935199</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8585520517318185</v>
+        <v>0.8606652689258567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9069403415736061</v>
+        <v>0.9066737696938044</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>158990</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132092</v>
+        <v>132411</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188884</v>
+        <v>188291</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04650455004376718</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03863705193086989</v>
+        <v>0.03873015842646821</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05524849174962431</v>
+        <v>0.05507513571869963</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -2523,19 +2523,19 @@
         <v>122499</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99595</v>
+        <v>100449</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148071</v>
+        <v>148251</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03446556255204499</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02802165408435903</v>
+        <v>0.02826189302976977</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04166055726848224</v>
+        <v>0.04171101413024442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -2544,19 +2544,19 @@
         <v>281488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>248273</v>
+        <v>244583</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>319943</v>
+        <v>322076</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0403681460831021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03560480457860325</v>
+        <v>0.03507549427673794</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04588298565771533</v>
+        <v>0.04618886786337915</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3259810</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3229916</v>
+        <v>3230509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3286708</v>
+        <v>3286389</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9534954499562328</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9447515082503758</v>
+        <v>0.9449248642813005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9613629480691303</v>
+        <v>0.9612698415735319</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3190</v>
@@ -2594,19 +2594,19 @@
         <v>3431731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3406159</v>
+        <v>3405979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3454635</v>
+        <v>3453781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.965534437447955</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9583394427315178</v>
+        <v>0.9582889858697557</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9719783459156411</v>
+        <v>0.9717381069702302</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6256</v>
@@ -2615,19 +2615,19 @@
         <v>6691543</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6653088</v>
+        <v>6650955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6724758</v>
+        <v>6728448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9596318539168979</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9541170143422847</v>
+        <v>0.9538111321366209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9643951954213967</v>
+        <v>0.9649245057232622</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>9078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4009</v>
+        <v>4819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15487</v>
+        <v>17438</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01205345668684254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005322271043308834</v>
+        <v>0.006398729865359352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02056182163427074</v>
+        <v>0.02315193727658983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2979,19 +2979,19 @@
         <v>10306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4982</v>
+        <v>4792</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18769</v>
+        <v>18496</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01040219945948015</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005029118662524438</v>
+        <v>0.004836934364139993</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01894515136192234</v>
+        <v>0.01866950143545692</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -3000,19 +3000,19 @@
         <v>19384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12068</v>
+        <v>11724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31173</v>
+        <v>30241</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0111153700383197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00692019221794979</v>
+        <v>0.006723084522026468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01787541897682792</v>
+        <v>0.01734138675968317</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>744101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>737692</v>
+        <v>735741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>749170</v>
+        <v>748360</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9879465433131575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9794381783657294</v>
+        <v>0.9768480627234095</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946777289566912</v>
+        <v>0.9936012701346406</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>880</v>
@@ -3050,19 +3050,19 @@
         <v>980406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>971943</v>
+        <v>972216</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>985730</v>
+        <v>985920</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9895978005405198</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9810548486380776</v>
+        <v>0.9813304985645432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9949708813374756</v>
+        <v>0.9951630656358605</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1632</v>
@@ -3071,19 +3071,19 @@
         <v>1724507</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1712718</v>
+        <v>1713650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1731823</v>
+        <v>1732167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9888846299616803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.982124581023172</v>
+        <v>0.9826586132403169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9930798077820502</v>
+        <v>0.9932769154779736</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>70480</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55183</v>
+        <v>54449</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89687</v>
+        <v>87919</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03398901577357005</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02661218999648516</v>
+        <v>0.02625805859163648</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04325179609654041</v>
+        <v>0.04239902537916262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -3196,19 +3196,19 @@
         <v>48786</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36475</v>
+        <v>36558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66240</v>
+        <v>64945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02455957493397832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01836217651525865</v>
+        <v>0.01840354062820166</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03334595108811565</v>
+        <v>0.03269403005426926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -3217,19 +3217,19 @@
         <v>119266</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98414</v>
+        <v>97537</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143498</v>
+        <v>142813</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02937551042223989</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02423951907691984</v>
+        <v>0.02402358595776538</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03534387760139798</v>
+        <v>0.03517510305656181</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2003124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1983917</v>
+        <v>1985685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2018421</v>
+        <v>2019155</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9660109842264299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9567482039034596</v>
+        <v>0.9576009746208374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9733878100035149</v>
+        <v>0.9737419414083636</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1862</v>
@@ -3267,19 +3267,19 @@
         <v>1937657</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1920203</v>
+        <v>1921498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1949968</v>
+        <v>1949885</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9754404250660217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9666540489118844</v>
+        <v>0.967305969945731</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9816378234847414</v>
+        <v>0.9815964593717984</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3747</v>
@@ -3288,19 +3288,19 @@
         <v>3940781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3916549</v>
+        <v>3917234</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3961633</v>
+        <v>3962510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9706244895777602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9646561223986018</v>
+        <v>0.964824896943438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.97576048092308</v>
+        <v>0.9759764140422346</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>76787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60728</v>
+        <v>61198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94880</v>
+        <v>96299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1406557931885007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1112389538647416</v>
+        <v>0.1121008065223742</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1737982258035674</v>
+        <v>0.1763969687742974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -3413,19 +3413,19 @@
         <v>62093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48492</v>
+        <v>49027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79356</v>
+        <v>78408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1130729499452771</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08830616080500403</v>
+        <v>0.08927906571227047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1445090509795026</v>
+        <v>0.1427831442875699</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -3434,19 +3434,19 @@
         <v>138880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117782</v>
+        <v>116687</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164790</v>
+        <v>163458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1268238476133207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1075574008759808</v>
+        <v>0.1065575872150029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1504842500321628</v>
+        <v>0.1492683770011255</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>469136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>451043</v>
+        <v>449624</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>485195</v>
+        <v>484725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8593442068114994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.826201774196432</v>
+        <v>0.8236030312257029</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8887610461352583</v>
+        <v>0.8878991934776259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>466</v>
@@ -3484,19 +3484,19 @@
         <v>487047</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>469784</v>
+        <v>470732</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>500648</v>
+        <v>500113</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8869270500547229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8554909490204975</v>
+        <v>0.8572168557124303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9116938391949959</v>
+        <v>0.9107209342877299</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>897</v>
@@ -3505,19 +3505,19 @@
         <v>956183</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>930273</v>
+        <v>931605</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>977281</v>
+        <v>978376</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8731761523866793</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8495157499678372</v>
+        <v>0.8507316229988744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8924425991240192</v>
+        <v>0.893442412784997</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>156345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131460</v>
+        <v>132038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183152</v>
+        <v>183912</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04635606918174369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03897763265397141</v>
+        <v>0.03914901389776342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05430417889353877</v>
+        <v>0.05452952938770115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -3630,19 +3630,19 @@
         <v>121185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98882</v>
+        <v>98671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142402</v>
+        <v>144790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03436600865319937</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02804141249898572</v>
+        <v>0.02798158931518311</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04038275473947804</v>
+        <v>0.04106004531907594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -3651,19 +3651,19 @@
         <v>277530</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246519</v>
+        <v>242721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312592</v>
+        <v>313778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04022757313345617</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03573263277708456</v>
+        <v>0.03518209913751987</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04530981056214523</v>
+        <v>0.04548163160173768</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3216360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3189553</v>
+        <v>3188793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3241245</v>
+        <v>3240667</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9536439308182563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9456958211064612</v>
+        <v>0.9454704706122988</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9610223673460286</v>
+        <v>0.9608509861022367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3208</v>
@@ -3701,19 +3701,19 @@
         <v>3405111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3383894</v>
+        <v>3381506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3427414</v>
+        <v>3427625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9656339913468006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9596172452605219</v>
+        <v>0.9589399546809241</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9719585875010142</v>
+        <v>0.9720184106848169</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6276</v>
@@ -3722,19 +3722,19 @@
         <v>6621471</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6586409</v>
+        <v>6585223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6652482</v>
+        <v>6656280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9597724268665438</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9546901894378548</v>
+        <v>0.9545183683982623</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9642673672229155</v>
+        <v>0.9648179008624801</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>3299</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>741</v>
+        <v>1002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8078</v>
+        <v>8649</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005702794978069463</v>
+        <v>0.005702794978069462</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001280559592170716</v>
+        <v>0.001731531521361403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01396363551554483</v>
+        <v>0.01495022937317015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4086,19 +4086,19 @@
         <v>6460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3324</v>
+        <v>3345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11453</v>
+        <v>11567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007865331835540123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00404684803182744</v>
+        <v>0.004072960491386193</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01394511803203713</v>
+        <v>0.01408401142521323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4107,19 +4107,19 @@
         <v>9759</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5664</v>
+        <v>5728</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16664</v>
+        <v>16816</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006971596042252181</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004046311860042725</v>
+        <v>0.004091603020836148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0119040709117789</v>
+        <v>0.01201282512424849</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>575230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>570451</v>
+        <v>569880</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>577788</v>
+        <v>577527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9942972050219306</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.986036364484455</v>
+        <v>0.9850497706268299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9987194404078293</v>
+        <v>0.9982684684786386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1415</v>
@@ -4157,19 +4157,19 @@
         <v>814855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>809862</v>
+        <v>809748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>817991</v>
+        <v>817970</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9921346681644599</v>
+        <v>0.9921346681644598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9860548819679624</v>
+        <v>0.9859159885747867</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9959531519681726</v>
+        <v>0.9959270395086138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2102</v>
@@ -4178,19 +4178,19 @@
         <v>1390086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1383181</v>
+        <v>1383029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1394181</v>
+        <v>1394117</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9930284039577479</v>
+        <v>0.9930284039577478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9880959290882216</v>
+        <v>0.9879871748757518</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9959536881399572</v>
+        <v>0.9959083969791639</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>70918</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54021</v>
+        <v>54774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92688</v>
+        <v>95203</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03179388315666126</v>
+        <v>0.03179388315666125</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02421841823604202</v>
+        <v>0.0245560159030751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04155349956477911</v>
+        <v>0.04268093049263307</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -4303,19 +4303,19 @@
         <v>36427</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26704</v>
+        <v>27154</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46595</v>
+        <v>47754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01678393225072416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01230395101357274</v>
+        <v>0.01251132495473581</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02146907726605795</v>
+        <v>0.02200313911632973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -4324,19 +4324,19 @@
         <v>107345</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89101</v>
+        <v>88589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131696</v>
+        <v>133072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02439163727115681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02024619821604333</v>
+        <v>0.02012986831864251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02992473312396214</v>
+        <v>0.03023756857728009</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2159648</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2137878</v>
+        <v>2135363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2176545</v>
+        <v>2175792</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9682061168433389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9584465004352209</v>
+        <v>0.9573190695073673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9757815817639578</v>
+        <v>0.975443984096925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2864</v>
@@ -4374,19 +4374,19 @@
         <v>2133899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2123731</v>
+        <v>2122572</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2143622</v>
+        <v>2143172</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9832160677492759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9785309227339422</v>
+        <v>0.9779968608836704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9876960489864274</v>
+        <v>0.9874886750452642</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4798</v>
@@ -4395,19 +4395,19 @@
         <v>4293547</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4269196</v>
+        <v>4267820</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4311791</v>
+        <v>4312303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9756083627288431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9700752668760378</v>
+        <v>0.9697624314227199</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9797538017839563</v>
+        <v>0.9798701316813576</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>55434</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42231</v>
+        <v>41581</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73379</v>
+        <v>73253</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07790151461852107</v>
+        <v>0.07790151461852106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0593471131322138</v>
+        <v>0.05843439858451779</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1031200024794486</v>
+        <v>0.1029433344845074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -4520,19 +4520,19 @@
         <v>59767</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48109</v>
+        <v>48433</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76062</v>
+        <v>73930</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08132890693570535</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.065465978484487</v>
+        <v>0.06590653772927559</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.103502560115436</v>
+        <v>0.1006024973683627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -4541,19 +4541,19 @@
         <v>115200</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97194</v>
+        <v>97245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137416</v>
+        <v>136143</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07964280386135759</v>
+        <v>0.07964280386135758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06719433727806277</v>
+        <v>0.06722970577566288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09500114881439983</v>
+        <v>0.09412116790643488</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>656153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>638208</v>
+        <v>638334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>669356</v>
+        <v>670006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.922098485381479</v>
+        <v>0.9220984853814789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8968799975205516</v>
+        <v>0.8970566655154928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9406528868677863</v>
+        <v>0.9415656014154822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>916</v>
@@ -4591,19 +4591,19 @@
         <v>675110</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>658815</v>
+        <v>660947</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>686768</v>
+        <v>686444</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9186710930642944</v>
+        <v>0.9186710930642945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8964974398845637</v>
+        <v>0.8993975026316373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9345340215155127</v>
+        <v>0.9340934622707245</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1534</v>
@@ -4612,19 +4612,19 @@
         <v>1331264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1309048</v>
+        <v>1310321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1349270</v>
+        <v>1349219</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9203571961386426</v>
+        <v>0.9203571961386425</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9049988511855995</v>
+        <v>0.9058788320935649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9328056627219372</v>
+        <v>0.9327702942243372</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>129651</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105923</v>
+        <v>108473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157958</v>
+        <v>158559</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03682561481028959</v>
+        <v>0.0368256148102896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03008597688124968</v>
+        <v>0.03081033785704889</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04486558496093004</v>
+        <v>0.04503631639512033</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -4737,19 +4737,19 @@
         <v>102653</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88316</v>
+        <v>87662</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121919</v>
+        <v>122728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02754670041663265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02369940987266973</v>
+        <v>0.02352376304119754</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03271662691311968</v>
+        <v>0.03293374171717539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>280</v>
@@ -4758,19 +4758,19 @@
         <v>232305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204864</v>
+        <v>205135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265560</v>
+        <v>262786</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03205438730825471</v>
+        <v>0.0320543873082547</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02826798853639619</v>
+        <v>0.02830538665602858</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03664313477084531</v>
+        <v>0.03626031160140423</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3391032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3362725</v>
+        <v>3362124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3414760</v>
+        <v>3412210</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9631743851897103</v>
+        <v>0.9631743851897104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.95513441503907</v>
+        <v>0.9549636836048798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9699140231187502</v>
+        <v>0.9691896621429513</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5195</v>
@@ -4808,19 +4808,19 @@
         <v>3623866</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3604600</v>
+        <v>3603791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3638203</v>
+        <v>3638857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9724532995833673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9672833730868801</v>
+        <v>0.9670662582828244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9763005901273298</v>
+        <v>0.9764762369588024</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8434</v>
@@ -4829,19 +4829,19 @@
         <v>7014896</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6981641</v>
+        <v>6984415</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7042337</v>
+        <v>7042066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9679456126917453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9633568652291546</v>
+        <v>0.9637396883985957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9717320114636039</v>
+        <v>0.9716946133439713</v>
       </c>
     </row>
     <row r="15">
